--- a/state_results/Rivers/TurakinaatONeillsBridge_0c38dab71b.xlsx
+++ b/state_results/Rivers/TurakinaatONeillsBridge_0c38dab71b.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U195"/>
+  <dimension ref="A1:U212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>0.4</v>
       </c>
       <c r="G2" t="n">
-        <v>0.658860246846711</v>
+        <v>0.650750201312968</v>
       </c>
       <c r="H2" t="n">
         <v>2.8</v>
@@ -587,7 +587,7 @@
         <v>1.234</v>
       </c>
       <c r="N2" t="n">
-        <v>1.98474</v>
+        <v>1.852</v>
       </c>
       <c r="O2" t="n">
         <v>1790573</v>
@@ -651,7 +651,7 @@
         <v>0.023</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0262312653153536</v>
+        <v>0.0262712219188941</v>
       </c>
       <c r="H3" t="n">
         <v>0.075</v>
@@ -732,7 +732,7 @@
         <v>0.023</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0262312653153536</v>
+        <v>0.0262712219188941</v>
       </c>
       <c r="H4" t="n">
         <v>0.075</v>
@@ -1153,7 +1153,7 @@
         <v>0.02695</v>
       </c>
       <c r="G9" t="n">
-        <v>0.033269016791057</v>
+        <v>0.0333092589013744</v>
       </c>
       <c r="H9" t="n">
         <v>0.157640357494707</v>
@@ -1234,7 +1234,7 @@
         <v>0.02695</v>
       </c>
       <c r="G10" t="n">
-        <v>0.033269016791057</v>
+        <v>0.0333092589013744</v>
       </c>
       <c r="H10" t="n">
         <v>0.157640357494707</v>
@@ -1315,7 +1315,7 @@
         <v>0.18795</v>
       </c>
       <c r="G11" t="n">
-        <v>0.235371168429972</v>
+        <v>0.235505531647831</v>
       </c>
       <c r="H11" t="n">
         <v>1.2045</v>
@@ -1326,7 +1326,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0.00452</v>
+        <v>0.00555</v>
       </c>
       <c r="M11" t="n">
         <v>0.46</v>
@@ -1396,7 +1396,7 @@
         <v>0.18795</v>
       </c>
       <c r="G12" t="n">
-        <v>0.235371168429972</v>
+        <v>0.235505531647831</v>
       </c>
       <c r="H12" t="n">
         <v>1.2045</v>
@@ -1407,7 +1407,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>0.00452</v>
+        <v>0.00555</v>
       </c>
       <c r="M12" t="n">
         <v>0.46</v>
@@ -1473,10 +1473,10 @@
         <v>0.228</v>
       </c>
       <c r="G13" t="n">
-        <v>0.263105987765063</v>
+        <v>0.262901580521934</v>
       </c>
       <c r="H13" t="n">
-        <v>1.229</v>
+        <v>1.2289</v>
       </c>
       <c r="I13" t="n">
         <v>0.7974</v>
@@ -1490,7 +1490,7 @@
         <v>0.51558</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6419</v>
+        <v>0.64229</v>
       </c>
       <c r="O13" t="n">
         <v>1790573</v>
@@ -1550,10 +1550,10 @@
         <v>0.228</v>
       </c>
       <c r="G14" t="n">
-        <v>0.263105987765063</v>
+        <v>0.262901580521934</v>
       </c>
       <c r="H14" t="n">
-        <v>1.229</v>
+        <v>1.2289</v>
       </c>
       <c r="I14" t="n">
         <v>0.7974</v>
@@ -1567,7 +1567,7 @@
         <v>0.51558</v>
       </c>
       <c r="N14" t="n">
-        <v>0.6419</v>
+        <v>0.64229</v>
       </c>
       <c r="O14" t="n">
         <v>1790573</v>
@@ -1939,7 +1939,7 @@
         <v>0.48</v>
       </c>
       <c r="G19" t="n">
-        <v>0.813373303033513</v>
+        <v>0.805428768633112</v>
       </c>
       <c r="H19" t="n">
         <v>4.7</v>
@@ -2020,7 +2020,7 @@
         <v>0.0245</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0269940775600977</v>
+        <v>0.0270333682202458</v>
       </c>
       <c r="H20" t="n">
         <v>0.075</v>
@@ -2101,7 +2101,7 @@
         <v>0.0245</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0269940775600977</v>
+        <v>0.0270333682202458</v>
       </c>
       <c r="H21" t="n">
         <v>0.075</v>
@@ -2522,7 +2522,7 @@
         <v>0.0263</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0324981882718665</v>
+        <v>0.0325229352168985</v>
       </c>
       <c r="H26" t="n">
         <v>0.157640357494707</v>
@@ -2603,7 +2603,7 @@
         <v>0.0263</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0324981882718665</v>
+        <v>0.0325229352168985</v>
       </c>
       <c r="H27" t="n">
         <v>0.157640357494707</v>
@@ -2684,7 +2684,7 @@
         <v>0.1289</v>
       </c>
       <c r="G28" t="n">
-        <v>0.20715264035831</v>
+        <v>0.207231276373192</v>
       </c>
       <c r="H28" t="n">
         <v>1.2045</v>
@@ -2695,7 +2695,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>0.00409</v>
+        <v>0.00453</v>
       </c>
       <c r="M28" t="n">
         <v>0.42333</v>
@@ -2765,7 +2765,7 @@
         <v>0.1289</v>
       </c>
       <c r="G29" t="n">
-        <v>0.20715264035831</v>
+        <v>0.207231276373192</v>
       </c>
       <c r="H29" t="n">
         <v>1.2045</v>
@@ -2776,7 +2776,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>0.00409</v>
+        <v>0.00453</v>
       </c>
       <c r="M29" t="n">
         <v>0.42333</v>
@@ -2839,16 +2839,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.1595</v>
+        <v>0.15935</v>
       </c>
       <c r="G30" t="n">
-        <v>0.249514486507742</v>
+        <v>0.24934376026186</v>
       </c>
       <c r="H30" t="n">
-        <v>1.229</v>
+        <v>1.2289</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7315</v>
+        <v>0.7317</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -2859,7 +2859,7 @@
         <v>0.5111</v>
       </c>
       <c r="N30" t="n">
-        <v>0.628</v>
+        <v>0.62844</v>
       </c>
       <c r="O30" t="n">
         <v>1790573</v>
@@ -2916,16 +2916,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.1595</v>
+        <v>0.15935</v>
       </c>
       <c r="G31" t="n">
-        <v>0.249514486507742</v>
+        <v>0.24934376026186</v>
       </c>
       <c r="H31" t="n">
-        <v>1.229</v>
+        <v>1.2289</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7315</v>
+        <v>0.7317</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -2936,7 +2936,7 @@
         <v>0.5111</v>
       </c>
       <c r="N31" t="n">
-        <v>0.628</v>
+        <v>0.62844</v>
       </c>
       <c r="O31" t="n">
         <v>1790573</v>
@@ -3385,7 +3385,7 @@
         <v>0.525</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9927795140242131</v>
+        <v>0.984690810309644</v>
       </c>
       <c r="H37" t="n">
         <v>4.7</v>
@@ -3399,7 +3399,7 @@
         <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>1.97039</v>
+        <v>1.7127</v>
       </c>
       <c r="N37" t="n">
         <v>3.262</v>
@@ -3466,7 +3466,7 @@
         <v>0.026</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0289176474381627</v>
+        <v>0.0289442315128026</v>
       </c>
       <c r="H38" t="n">
         <v>0.075</v>
@@ -3547,7 +3547,7 @@
         <v>0.026</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0289176474381627</v>
+        <v>0.0289442315128026</v>
       </c>
       <c r="H39" t="n">
         <v>0.075</v>
@@ -4045,7 +4045,7 @@
         <v>0.02488</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0313500097954085</v>
+        <v>0.0313687781697702</v>
       </c>
       <c r="H45" t="n">
         <v>0.157640357494707</v>
@@ -4126,7 +4126,7 @@
         <v>0.02488</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0313500097954085</v>
+        <v>0.0313687781697702</v>
       </c>
       <c r="H46" t="n">
         <v>0.157640357494707</v>
@@ -4207,7 +4207,7 @@
         <v>0.15445</v>
       </c>
       <c r="G47" t="n">
-        <v>0.229981207544745</v>
+        <v>0.229962399107922</v>
       </c>
       <c r="H47" t="n">
         <v>1.2045</v>
@@ -4218,7 +4218,7 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.002</v>
+        <v>0.0019</v>
       </c>
       <c r="M47" t="n">
         <v>0.46129</v>
@@ -4288,7 +4288,7 @@
         <v>0.15445</v>
       </c>
       <c r="G48" t="n">
-        <v>0.229981207544745</v>
+        <v>0.229962399107922</v>
       </c>
       <c r="H48" t="n">
         <v>1.2045</v>
@@ -4299,7 +4299,7 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.002</v>
+        <v>0.0019</v>
       </c>
       <c r="M48" t="n">
         <v>0.46129</v>
@@ -4439,16 +4439,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.196</v>
+        <v>0.1958</v>
       </c>
       <c r="G50" t="n">
-        <v>0.271102646855707</v>
+        <v>0.270904980896654</v>
       </c>
       <c r="H50" t="n">
-        <v>1.229</v>
+        <v>1.2289</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7635</v>
+        <v>0.7637</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -4459,7 +4459,7 @@
         <v>0.5488</v>
       </c>
       <c r="N50" t="n">
-        <v>0.6673</v>
+        <v>0.66765</v>
       </c>
       <c r="O50" t="n">
         <v>1790573</v>
@@ -4516,16 +4516,16 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.196</v>
+        <v>0.1958</v>
       </c>
       <c r="G51" t="n">
-        <v>0.271102646855707</v>
+        <v>0.270904980896654</v>
       </c>
       <c r="H51" t="n">
-        <v>1.229</v>
+        <v>1.2289</v>
       </c>
       <c r="I51" t="n">
-        <v>0.7635</v>
+        <v>0.7637</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -4536,7 +4536,7 @@
         <v>0.5488</v>
       </c>
       <c r="N51" t="n">
-        <v>0.6673</v>
+        <v>0.66765</v>
       </c>
       <c r="O51" t="n">
         <v>1790573</v>
@@ -4985,7 +4985,7 @@
         <v>0.415</v>
       </c>
       <c r="G57" t="n">
-        <v>1.16649562887953</v>
+        <v>1.16654015373881</v>
       </c>
       <c r="H57" t="n">
         <v>7.6</v>
@@ -5642,10 +5642,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.008670000000000001</v>
+        <v>0.00893</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0251307644056196</v>
+        <v>0.0251970074910348</v>
       </c>
       <c r="H65" t="n">
         <v>0.157640357494707</v>
@@ -5656,7 +5656,7 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.008670000000000001</v>
+        <v>0.00893</v>
       </c>
       <c r="M65" t="n">
         <v>0.05437</v>
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.008670000000000001</v>
+        <v>0.00893</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0251307644056196</v>
+        <v>0.0251970074910348</v>
       </c>
       <c r="H66" t="n">
         <v>0.157640357494707</v>
@@ -5737,7 +5737,7 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>0.008670000000000001</v>
+        <v>0.00893</v>
       </c>
       <c r="M66" t="n">
         <v>0.05437</v>
@@ -5807,7 +5807,7 @@
         <v>0.1289</v>
       </c>
       <c r="G67" t="n">
-        <v>0.224822674140874</v>
+        <v>0.224870160235276</v>
       </c>
       <c r="H67" t="n">
         <v>1.2045</v>
@@ -5818,7 +5818,7 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
-        <v>0.00201</v>
+        <v>0.00275</v>
       </c>
       <c r="M67" t="n">
         <v>0.45429</v>
@@ -5888,7 +5888,7 @@
         <v>0.1289</v>
       </c>
       <c r="G68" t="n">
-        <v>0.224822674140874</v>
+        <v>0.224870160235276</v>
       </c>
       <c r="H68" t="n">
         <v>1.2045</v>
@@ -5899,7 +5899,7 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
-        <v>0.00201</v>
+        <v>0.00275</v>
       </c>
       <c r="M68" t="n">
         <v>0.45429</v>
@@ -6039,27 +6039,27 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.1595</v>
+        <v>0.15935</v>
       </c>
       <c r="G70" t="n">
-        <v>0.262202091891613</v>
+        <v>0.262003015806656</v>
       </c>
       <c r="H70" t="n">
-        <v>1.229</v>
+        <v>1.2289</v>
       </c>
       <c r="I70" t="n">
-        <v>0.7635</v>
+        <v>0.7637</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>0.012</v>
+        <v>0.0115</v>
       </c>
       <c r="M70" t="n">
         <v>0.5551</v>
       </c>
       <c r="N70" t="n">
-        <v>0.6875</v>
+        <v>0.68765</v>
       </c>
       <c r="O70" t="n">
         <v>1790573</v>
@@ -6116,27 +6116,27 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.1595</v>
+        <v>0.15935</v>
       </c>
       <c r="G71" t="n">
-        <v>0.262202091891613</v>
+        <v>0.262003015806656</v>
       </c>
       <c r="H71" t="n">
-        <v>1.229</v>
+        <v>1.2289</v>
       </c>
       <c r="I71" t="n">
-        <v>0.7635</v>
+        <v>0.7637</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
-        <v>0.012</v>
+        <v>0.0115</v>
       </c>
       <c r="M71" t="n">
         <v>0.5551</v>
       </c>
       <c r="N71" t="n">
-        <v>0.6875</v>
+        <v>0.68765</v>
       </c>
       <c r="O71" t="n">
         <v>1790573</v>
@@ -6585,7 +6585,7 @@
         <v>0.4</v>
       </c>
       <c r="G77" t="n">
-        <v>1.16078134316525</v>
+        <v>1.16082586802452</v>
       </c>
       <c r="H77" t="n">
         <v>7.6</v>
@@ -7242,10 +7242,10 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.00795</v>
+        <v>0.0081</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0191473237068565</v>
+        <v>0.0192351659686014</v>
       </c>
       <c r="H85" t="n">
         <v>0.09869703444440379</v>
@@ -7256,7 +7256,7 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
-        <v>0.00804</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="M85" t="n">
         <v>0.04013</v>
@@ -7323,10 +7323,10 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.00795</v>
+        <v>0.0081</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0191473237068565</v>
+        <v>0.0192351659686014</v>
       </c>
       <c r="H86" t="n">
         <v>0.09869703444440379</v>
@@ -7337,7 +7337,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
-        <v>0.00804</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="M86" t="n">
         <v>0.04013</v>
@@ -7407,7 +7407,7 @@
         <v>0.1236</v>
       </c>
       <c r="G87" t="n">
-        <v>0.222775329971239</v>
+        <v>0.222854188116711</v>
       </c>
       <c r="H87" t="n">
         <v>1.2045</v>
@@ -7418,7 +7418,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>0.00214</v>
+        <v>0.0033</v>
       </c>
       <c r="M87" t="n">
         <v>0.45289</v>
@@ -7488,7 +7488,7 @@
         <v>0.1236</v>
       </c>
       <c r="G88" t="n">
-        <v>0.222775329971239</v>
+        <v>0.222854188116711</v>
       </c>
       <c r="H88" t="n">
         <v>1.2045</v>
@@ -7499,7 +7499,7 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
-        <v>0.00214</v>
+        <v>0.0033</v>
       </c>
       <c r="M88" t="n">
         <v>0.45289</v>
@@ -7639,27 +7639,27 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.142</v>
+        <v>0.14185</v>
       </c>
       <c r="G90" t="n">
-        <v>0.255575003042122</v>
+        <v>0.255371417177904</v>
       </c>
       <c r="H90" t="n">
-        <v>1.229</v>
+        <v>1.2289</v>
       </c>
       <c r="I90" t="n">
-        <v>0.7635</v>
+        <v>0.7637</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>0.0105</v>
+        <v>0.01</v>
       </c>
       <c r="M90" t="n">
         <v>0.5605</v>
       </c>
       <c r="N90" t="n">
-        <v>0.6875</v>
+        <v>0.68765</v>
       </c>
       <c r="O90" t="n">
         <v>1790573</v>
@@ -7716,27 +7716,27 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.142</v>
+        <v>0.14185</v>
       </c>
       <c r="G91" t="n">
-        <v>0.255575003042122</v>
+        <v>0.255371417177904</v>
       </c>
       <c r="H91" t="n">
-        <v>1.229</v>
+        <v>1.2289</v>
       </c>
       <c r="I91" t="n">
-        <v>0.7635</v>
+        <v>0.7637</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
-        <v>0.0105</v>
+        <v>0.01</v>
       </c>
       <c r="M91" t="n">
         <v>0.5605</v>
       </c>
       <c r="N91" t="n">
-        <v>0.6875</v>
+        <v>0.68765</v>
       </c>
       <c r="O91" t="n">
         <v>1790573</v>
@@ -8185,7 +8185,7 @@
         <v>0.32</v>
       </c>
       <c r="G97" t="n">
-        <v>1.03114285911955</v>
+        <v>1.03118563790591</v>
       </c>
       <c r="H97" t="n">
         <v>7.6</v>
@@ -8842,10 +8842,10 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.009220000000000001</v>
+        <v>0.00944</v>
       </c>
       <c r="G105" t="n">
-        <v>0.019368392859225</v>
+        <v>0.0194847629904786</v>
       </c>
       <c r="H105" t="n">
         <v>0.09869703444440379</v>
@@ -8856,7 +8856,7 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
-        <v>0.009220000000000001</v>
+        <v>0.00944</v>
       </c>
       <c r="M105" t="n">
         <v>0.03872</v>
@@ -8923,10 +8923,10 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.009220000000000001</v>
+        <v>0.00944</v>
       </c>
       <c r="G106" t="n">
-        <v>0.019368392859225</v>
+        <v>0.0194847629904786</v>
       </c>
       <c r="H106" t="n">
         <v>0.09869703444440379</v>
@@ -8937,7 +8937,7 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
-        <v>0.009220000000000001</v>
+        <v>0.00944</v>
       </c>
       <c r="M106" t="n">
         <v>0.03872</v>
@@ -9007,7 +9007,7 @@
         <v>0.1177</v>
       </c>
       <c r="G107" t="n">
-        <v>0.227809138862611</v>
+        <v>0.228102429688848</v>
       </c>
       <c r="H107" t="n">
         <v>0.825</v>
@@ -9018,7 +9018,7 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>0.00312</v>
+        <v>0.00416</v>
       </c>
       <c r="M107" t="n">
         <v>0.5676</v>
@@ -9088,7 +9088,7 @@
         <v>0.1177</v>
       </c>
       <c r="G108" t="n">
-        <v>0.227809138862611</v>
+        <v>0.228102429688848</v>
       </c>
       <c r="H108" t="n">
         <v>0.825</v>
@@ -9099,7 +9099,7 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
-        <v>0.00312</v>
+        <v>0.00416</v>
       </c>
       <c r="M108" t="n">
         <v>0.5676</v>
@@ -9239,16 +9239,16 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0.134</v>
+        <v>0.13395</v>
       </c>
       <c r="G110" t="n">
-        <v>0.258578454898776</v>
+        <v>0.258566461907556</v>
       </c>
       <c r="H110" t="n">
         <v>0.89</v>
       </c>
       <c r="I110" t="n">
-        <v>0.821</v>
+        <v>0.8212</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -9256,7 +9256,7 @@
         <v>0.01</v>
       </c>
       <c r="M110" t="n">
-        <v>0.5981</v>
+        <v>0.59831</v>
       </c>
       <c r="N110" t="n">
         <v>0.716</v>
@@ -9316,16 +9316,16 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.134</v>
+        <v>0.13395</v>
       </c>
       <c r="G111" t="n">
-        <v>0.258578454898776</v>
+        <v>0.258566461907556</v>
       </c>
       <c r="H111" t="n">
         <v>0.89</v>
       </c>
       <c r="I111" t="n">
-        <v>0.821</v>
+        <v>0.8212</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -9333,7 +9333,7 @@
         <v>0.01</v>
       </c>
       <c r="M111" t="n">
-        <v>0.5981</v>
+        <v>0.59831</v>
       </c>
       <c r="N111" t="n">
         <v>0.716</v>
@@ -9785,7 +9785,7 @@
         <v>0.3925</v>
       </c>
       <c r="G117" t="n">
-        <v>1.02311640398328</v>
+        <v>1.0231568061704</v>
       </c>
       <c r="H117" t="n">
         <v>7.6</v>
@@ -10442,10 +10442,10 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0.0167</v>
+        <v>0.01699</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0225570496411912</v>
+        <v>0.0226835517570948</v>
       </c>
       <c r="H125" t="n">
         <v>0.09517577292297889</v>
@@ -10456,10 +10456,10 @@
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
-        <v>0.01064</v>
+        <v>0.01093</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04208</v>
+        <v>0.04198</v>
       </c>
       <c r="N125" t="n">
         <v>0.05798</v>
@@ -10523,10 +10523,10 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.0167</v>
+        <v>0.01699</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0225570496411912</v>
+        <v>0.0226835517570948</v>
       </c>
       <c r="H126" t="n">
         <v>0.09517577292297889</v>
@@ -10537,10 +10537,10 @@
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
-        <v>0.01064</v>
+        <v>0.01093</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04208</v>
+        <v>0.04198</v>
       </c>
       <c r="N126" t="n">
         <v>0.05798</v>
@@ -10607,7 +10607,7 @@
         <v>0.11125</v>
       </c>
       <c r="G127" t="n">
-        <v>0.230676828389386</v>
+        <v>0.231189124978821</v>
       </c>
       <c r="H127" t="n">
         <v>0.825</v>
@@ -10618,7 +10618,7 @@
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
-        <v>0.00388</v>
+        <v>0.00547</v>
       </c>
       <c r="M127" t="n">
         <v>0.5676</v>
@@ -10688,7 +10688,7 @@
         <v>0.11125</v>
       </c>
       <c r="G128" t="n">
-        <v>0.230676828389386</v>
+        <v>0.231189124978821</v>
       </c>
       <c r="H128" t="n">
         <v>0.825</v>
@@ -10699,7 +10699,7 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>0.00388</v>
+        <v>0.00547</v>
       </c>
       <c r="M128" t="n">
         <v>0.5676</v>
@@ -10839,10 +10839,10 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0.134</v>
+        <v>0.1339</v>
       </c>
       <c r="G130" t="n">
-        <v>0.26230184114742</v>
+        <v>0.262270755291387</v>
       </c>
       <c r="H130" t="n">
         <v>0.89</v>
@@ -10853,7 +10853,7 @@
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
-        <v>0.01218</v>
+        <v>0.01201</v>
       </c>
       <c r="M130" t="n">
         <v>0.613</v>
@@ -10916,10 +10916,10 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0.134</v>
+        <v>0.1339</v>
       </c>
       <c r="G131" t="n">
-        <v>0.26230184114742</v>
+        <v>0.262270755291387</v>
       </c>
       <c r="H131" t="n">
         <v>0.89</v>
@@ -10930,7 +10930,7 @@
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
-        <v>0.01218</v>
+        <v>0.01201</v>
       </c>
       <c r="M131" t="n">
         <v>0.613</v>
@@ -12045,7 +12045,7 @@
         <v>0.01987</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0279860223906516</v>
+        <v>0.0281036129408841</v>
       </c>
       <c r="H145" t="n">
         <v>0.200362450337698</v>
@@ -12056,7 +12056,7 @@
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
-        <v>0.01064</v>
+        <v>0.01093</v>
       </c>
       <c r="M145" t="n">
         <v>0.04575</v>
@@ -12126,7 +12126,7 @@
         <v>0.01987</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0279860223906516</v>
+        <v>0.0281036129408841</v>
       </c>
       <c r="H146" t="n">
         <v>0.200362450337698</v>
@@ -12137,7 +12137,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
-        <v>0.01064</v>
+        <v>0.01093</v>
       </c>
       <c r="M146" t="n">
         <v>0.04575</v>
@@ -12207,7 +12207,7 @@
         <v>0.116</v>
       </c>
       <c r="G147" t="n">
-        <v>0.235571122648245</v>
+        <v>0.236302061160702</v>
       </c>
       <c r="H147" t="n">
         <v>1.07</v>
@@ -12218,7 +12218,7 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
-        <v>0.00427</v>
+        <v>0.00649</v>
       </c>
       <c r="M147" t="n">
         <v>0.56264</v>
@@ -12288,7 +12288,7 @@
         <v>0.116</v>
       </c>
       <c r="G148" t="n">
-        <v>0.235571122648245</v>
+        <v>0.236302061160702</v>
       </c>
       <c r="H148" t="n">
         <v>1.07</v>
@@ -12299,7 +12299,7 @@
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
-        <v>0.00427</v>
+        <v>0.00649</v>
       </c>
       <c r="M148" t="n">
         <v>0.56264</v>
@@ -12442,7 +12442,7 @@
         <v>0.145</v>
       </c>
       <c r="G150" t="n">
-        <v>0.268030861829954</v>
+        <v>0.268001221684671</v>
       </c>
       <c r="H150" t="n">
         <v>1.114</v>
@@ -12453,7 +12453,7 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
-        <v>0.01218</v>
+        <v>0.01201</v>
       </c>
       <c r="M150" t="n">
         <v>0.6147</v>
@@ -12519,7 +12519,7 @@
         <v>0.145</v>
       </c>
       <c r="G151" t="n">
-        <v>0.268030861829954</v>
+        <v>0.268001221684671</v>
       </c>
       <c r="H151" t="n">
         <v>1.114</v>
@@ -12530,7 +12530,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
-        <v>0.01218</v>
+        <v>0.01201</v>
       </c>
       <c r="M151" t="n">
         <v>0.6147</v>
@@ -13642,10 +13642,10 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0.02191</v>
+        <v>0.0221</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0307248016976698</v>
+        <v>0.0307870709124383</v>
       </c>
       <c r="H165" t="n">
         <v>0.200362450337698</v>
@@ -13656,7 +13656,7 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
-        <v>0.01269</v>
+        <v>0.01283</v>
       </c>
       <c r="M165" t="n">
         <v>0.04575</v>
@@ -13723,10 +13723,10 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0.02191</v>
+        <v>0.0221</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0307248016976698</v>
+        <v>0.0307870709124383</v>
       </c>
       <c r="H166" t="n">
         <v>0.200362450337698</v>
@@ -13737,7 +13737,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
-        <v>0.01269</v>
+        <v>0.01283</v>
       </c>
       <c r="M166" t="n">
         <v>0.04575</v>
@@ -13807,7 +13807,7 @@
         <v>0.194</v>
       </c>
       <c r="G167" t="n">
-        <v>0.25558535657459</v>
+        <v>0.256386599539022</v>
       </c>
       <c r="H167" t="n">
         <v>1.07</v>
@@ -13818,7 +13818,7 @@
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
-        <v>0.00582</v>
+        <v>0.00844</v>
       </c>
       <c r="M167" t="n">
         <v>0.57135</v>
@@ -13888,7 +13888,7 @@
         <v>0.194</v>
       </c>
       <c r="G168" t="n">
-        <v>0.25558535657459</v>
+        <v>0.256386599539022</v>
       </c>
       <c r="H168" t="n">
         <v>1.07</v>
@@ -13899,7 +13899,7 @@
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
-        <v>0.00582</v>
+        <v>0.00844</v>
       </c>
       <c r="M168" t="n">
         <v>0.57135</v>
@@ -14042,7 +14042,7 @@
         <v>0.215</v>
       </c>
       <c r="G170" t="n">
-        <v>0.287542117887261</v>
+        <v>0.287523124899727</v>
       </c>
       <c r="H170" t="n">
         <v>1.114</v>
@@ -14053,7 +14053,7 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
-        <v>0.01385</v>
+        <v>0.01368</v>
       </c>
       <c r="M170" t="n">
         <v>0.6341</v>
@@ -14119,7 +14119,7 @@
         <v>0.215</v>
       </c>
       <c r="G171" t="n">
-        <v>0.287542117887261</v>
+        <v>0.287523124899727</v>
       </c>
       <c r="H171" t="n">
         <v>1.114</v>
@@ -14130,7 +14130,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
-        <v>0.01385</v>
+        <v>0.01368</v>
       </c>
       <c r="M171" t="n">
         <v>0.6341</v>
@@ -15242,10 +15242,10 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0.02249</v>
+        <v>0.0228</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0314543721526551</v>
+        <v>0.0314941142106881</v>
       </c>
       <c r="H185" t="n">
         <v>0.200362450337698</v>
@@ -15256,10 +15256,10 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
-        <v>0.01633</v>
+        <v>0.0167</v>
       </c>
       <c r="M185" t="n">
-        <v>0.04312</v>
+        <v>0.04302</v>
       </c>
       <c r="N185" t="n">
         <v>0.06161</v>
@@ -15323,10 +15323,10 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0.02249</v>
+        <v>0.0228</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0314543721526551</v>
+        <v>0.0314941142106881</v>
       </c>
       <c r="H186" t="n">
         <v>0.200362450337698</v>
@@ -15337,10 +15337,10 @@
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
-        <v>0.01633</v>
+        <v>0.0167</v>
       </c>
       <c r="M186" t="n">
-        <v>0.04312</v>
+        <v>0.04302</v>
       </c>
       <c r="N186" t="n">
         <v>0.06161</v>
@@ -15407,7 +15407,7 @@
         <v>0.194</v>
       </c>
       <c r="G187" t="n">
-        <v>0.275161594519947</v>
+        <v>0.276025849912989</v>
       </c>
       <c r="H187" t="n">
         <v>1.07</v>
@@ -15418,7 +15418,7 @@
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
-        <v>0.00693</v>
+        <v>0.01047</v>
       </c>
       <c r="M187" t="n">
         <v>0.61812</v>
@@ -15488,7 +15488,7 @@
         <v>0.194</v>
       </c>
       <c r="G188" t="n">
-        <v>0.275161594519947</v>
+        <v>0.276025849912989</v>
       </c>
       <c r="H188" t="n">
         <v>1.07</v>
@@ -15499,7 +15499,7 @@
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
-        <v>0.00693</v>
+        <v>0.01047</v>
       </c>
       <c r="M188" t="n">
         <v>0.61812</v>
@@ -15642,7 +15642,7 @@
         <v>0.215</v>
       </c>
       <c r="G190" t="n">
-        <v>0.307186145373998</v>
+        <v>0.307169478715947</v>
       </c>
       <c r="H190" t="n">
         <v>1.114</v>
@@ -15653,7 +15653,7 @@
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
-        <v>0.01651</v>
+        <v>0.01634</v>
       </c>
       <c r="M190" t="n">
         <v>0.6762</v>
@@ -15719,7 +15719,7 @@
         <v>0.215</v>
       </c>
       <c r="G191" t="n">
-        <v>0.307186145373998</v>
+        <v>0.307169478715947</v>
       </c>
       <c r="H191" t="n">
         <v>1.114</v>
@@ -15730,7 +15730,7 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
-        <v>0.01651</v>
+        <v>0.01634</v>
       </c>
       <c r="M191" t="n">
         <v>0.6762</v>
@@ -16078,6 +16078,1375 @@
         </is>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 2)</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.87114</v>
+      </c>
+      <c r="H196" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I196" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="N196" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O196" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="P196" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.0398070175438597</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.08085000000000001</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0.04881</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.06534</v>
+      </c>
+      <c r="O197" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="P197" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.0398070175438597</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.08085000000000001</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0.04881</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0.06534</v>
+      </c>
+      <c r="O198" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="P198" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>91</v>
+      </c>
+      <c r="G199" t="n">
+        <v>2829.18114479986</v>
+      </c>
+      <c r="H199" t="n">
+        <v>98040</v>
+      </c>
+      <c r="I199" t="n">
+        <v>7579.25</v>
+      </c>
+      <c r="J199" t="n">
+        <v>31.5789473684211</v>
+      </c>
+      <c r="K199" t="n">
+        <v>40.3508771929825</v>
+      </c>
+      <c r="L199" t="n">
+        <v>64</v>
+      </c>
+      <c r="M199" t="n">
+        <v>3371.42</v>
+      </c>
+      <c r="N199" t="n">
+        <v>5139.06</v>
+      </c>
+      <c r="O199" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="P199" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>91</v>
+      </c>
+      <c r="G200" t="n">
+        <v>2829.18114479986</v>
+      </c>
+      <c r="H200" t="n">
+        <v>98040</v>
+      </c>
+      <c r="I200" t="n">
+        <v>7579.25</v>
+      </c>
+      <c r="J200" t="n">
+        <v>31.5789473684211</v>
+      </c>
+      <c r="K200" t="n">
+        <v>40.3508771929825</v>
+      </c>
+      <c r="L200" t="n">
+        <v>64</v>
+      </c>
+      <c r="M200" t="n">
+        <v>3371.42</v>
+      </c>
+      <c r="N200" t="n">
+        <v>5139.06</v>
+      </c>
+      <c r="O200" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="P200" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>91</v>
+      </c>
+      <c r="G201" t="n">
+        <v>2829.18114479986</v>
+      </c>
+      <c r="H201" t="n">
+        <v>98040</v>
+      </c>
+      <c r="I201" t="n">
+        <v>7579.25</v>
+      </c>
+      <c r="J201" t="n">
+        <v>31.5789473684211</v>
+      </c>
+      <c r="K201" t="n">
+        <v>40.3508771929825</v>
+      </c>
+      <c r="L201" t="n">
+        <v>64</v>
+      </c>
+      <c r="M201" t="n">
+        <v>3371.42</v>
+      </c>
+      <c r="N201" t="n">
+        <v>5139.06</v>
+      </c>
+      <c r="O201" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="P201" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>91</v>
+      </c>
+      <c r="G202" t="n">
+        <v>2829.18114479986</v>
+      </c>
+      <c r="H202" t="n">
+        <v>98040</v>
+      </c>
+      <c r="I202" t="n">
+        <v>7579.25</v>
+      </c>
+      <c r="J202" t="n">
+        <v>31.5789473684211</v>
+      </c>
+      <c r="K202" t="n">
+        <v>40.3508771929825</v>
+      </c>
+      <c r="L202" t="n">
+        <v>64</v>
+      </c>
+      <c r="M202" t="n">
+        <v>3371.42</v>
+      </c>
+      <c r="N202" t="n">
+        <v>5139.06</v>
+      </c>
+      <c r="O202" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="P202" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>0.03023</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.0341432759124367</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.200362450337698</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.11947</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>0.01469</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0.04627</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0.06911</v>
+      </c>
+      <c r="O203" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="P203" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>0.03023</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.0341432759124367</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.200362450337698</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.11947</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>0.01469</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0.04627</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.06911</v>
+      </c>
+      <c r="O204" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="P204" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.276670365114517</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.6873</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>0.01271</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0.53857</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0.6519200000000001</v>
+      </c>
+      <c r="O205" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="P205" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.276670365114517</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0.6873</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>0.01271</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0.53857</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0.6519200000000001</v>
+      </c>
+      <c r="O206" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="P206" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T206" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="U206" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.313218554439121</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1.114</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0.74325</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>0.02028</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0.61677</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0.7077</v>
+      </c>
+      <c r="O207" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="P207" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T207" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.313218554439121</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1.114</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0.74325</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>0.02028</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0.61677</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0.7077</v>
+      </c>
+      <c r="O208" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="P208" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T208" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.997543859649123</v>
+      </c>
+      <c r="H209" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="I209" t="n">
+        <v>2.682</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="M209" t="n">
+        <v>1.7691</v>
+      </c>
+      <c r="N209" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O209" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="P209" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.997543859649123</v>
+      </c>
+      <c r="H210" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="I210" t="n">
+        <v>2.682</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="M210" t="n">
+        <v>1.7691</v>
+      </c>
+      <c r="N210" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O210" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="P210" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.255631578947368</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1.19505</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0.30522</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0.93912</v>
+      </c>
+      <c r="O211" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="P211" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.255631578947368</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1.19505</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0.30522</v>
+      </c>
+      <c r="N212" t="n">
+        <v>0.93912</v>
+      </c>
+      <c r="O212" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="P212" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/TurakinaatONeillsBridge_0c38dab71b.xlsx
+++ b/state_results/Rivers/TurakinaatONeillsBridge_0c38dab71b.xlsx
@@ -570,13 +570,13 @@
         <v>0.4</v>
       </c>
       <c r="G2" t="n">
-        <v>0.650750201312968</v>
+        <v>0.671203798018848</v>
       </c>
       <c r="H2" t="n">
         <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>2.03</v>
+        <v>2.32465</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -587,7 +587,7 @@
         <v>1.234</v>
       </c>
       <c r="N2" t="n">
-        <v>1.852</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
         <v>1790573</v>
@@ -1939,7 +1939,7 @@
         <v>0.48</v>
       </c>
       <c r="G19" t="n">
-        <v>0.805428768633112</v>
+        <v>0.825464944998056</v>
       </c>
       <c r="H19" t="n">
         <v>4.7</v>
@@ -1956,7 +1956,7 @@
         <v>1.5085</v>
       </c>
       <c r="N19" t="n">
-        <v>2.174</v>
+        <v>2.44295</v>
       </c>
       <c r="O19" t="n">
         <v>1790573</v>
@@ -3385,7 +3385,7 @@
         <v>0.525</v>
       </c>
       <c r="G37" t="n">
-        <v>0.984690810309644</v>
+        <v>1.00514440701552</v>
       </c>
       <c r="H37" t="n">
         <v>4.7</v>
@@ -3399,7 +3399,7 @@
         <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>1.7127</v>
+        <v>2</v>
       </c>
       <c r="N37" t="n">
         <v>3.262</v>
